--- a/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
+++ b/REGULAR/CTO/DIMAPILIS ELVIRA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="527">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1608,6 +1608,12 @@
   </si>
   <si>
     <t>9/15, 22/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/13,21/2023</t>
   </si>
 </sst>
 </file>
@@ -2321,8 +2327,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K683" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K683"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K685" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K685"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2651,12 +2657,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K683"/>
+  <dimension ref="A2:K685"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A656" activePane="bottomLeft"/>
+      <pane ySplit="3720" topLeftCell="A650" activePane="bottomLeft"/>
       <selection activeCell="K16" sqref="K16"/>
-      <selection pane="bottomLeft" activeCell="K665" sqref="K665"/>
+      <selection pane="bottomLeft" activeCell="K669" sqref="K669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2825,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.968899999999792</v>
+        <v>40.718899999999792</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2829,7 +2835,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>78.483000000000004</v>
+        <v>81.233000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16759,7 +16765,7 @@
       </c>
       <c r="E634" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.968899999999792</v>
+        <v>40.718899999999792</v>
       </c>
       <c r="F634" s="20"/>
       <c r="G634" s="13" t="str">
@@ -16806,7 +16812,7 @@
       </c>
       <c r="E636" s="52">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.968899999999792</v>
+        <v>40.718899999999792</v>
       </c>
       <c r="F636" s="20"/>
       <c r="G636" s="13" t="str">
@@ -17461,15 +17467,17 @@
       <c r="B665" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C665" s="13"/>
+      <c r="C665" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D665" s="39">
         <v>2</v>
       </c>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
-      <c r="G665" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G665" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
@@ -17479,10 +17487,10 @@
       </c>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A666" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B666" s="20"/>
+      <c r="A666" s="40"/>
+      <c r="B666" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="C666" s="13"/>
       <c r="D666" s="39"/>
       <c r="E666" s="9"/>
@@ -17491,23 +17499,29 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H666" s="39"/>
+      <c r="H666" s="39">
+        <v>1</v>
+      </c>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
-      <c r="K666" s="20"/>
+      <c r="K666" s="49">
+        <v>45196</v>
+      </c>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B667" s="20"/>
-      <c r="C667" s="13"/>
+      <c r="C667" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D667" s="39"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G667" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H667" s="39"/>
       <c r="I667" s="9"/>
@@ -17516,16 +17530,18 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B668" s="20"/>
-      <c r="C668" s="13"/>
+      <c r="C668" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D668" s="39"/>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G668" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
@@ -17534,9 +17550,11 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B669" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B669" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="C669" s="13"/>
       <c r="D669" s="39"/>
       <c r="E669" s="9"/>
@@ -17548,11 +17566,13 @@
       <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
-      <c r="K669" s="20"/>
+      <c r="K669" s="20" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A670" s="40">
-        <v>45323</v>
+      <c r="A670" s="48" t="s">
+        <v>525</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17570,7 +17590,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17588,7 +17608,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17606,7 +17626,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17624,7 +17644,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17642,7 +17662,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17660,7 +17680,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17678,7 +17698,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17696,7 +17716,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17714,7 +17734,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17731,7 +17751,9 @@
       <c r="K679" s="20"/>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A680" s="40"/>
+      <c r="A680" s="40">
+        <v>45566</v>
+      </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
       <c r="D680" s="39"/>
@@ -17747,7 +17769,9 @@
       <c r="K680" s="20"/>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A681" s="40"/>
+      <c r="A681" s="40">
+        <v>45597</v>
+      </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
       <c r="D681" s="39"/>
@@ -17779,20 +17803,52 @@
       <c r="K682" s="20"/>
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A683" s="41"/>
-      <c r="B683" s="15"/>
-      <c r="C683" s="42"/>
-      <c r="D683" s="43"/>
+      <c r="A683" s="40"/>
+      <c r="B683" s="20"/>
+      <c r="C683" s="13"/>
+      <c r="D683" s="39"/>
       <c r="E683" s="9"/>
-      <c r="F683" s="15"/>
-      <c r="G683" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H683" s="43"/>
+      <c r="F683" s="20"/>
+      <c r="G683" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H683" s="39"/>
       <c r="I683" s="9"/>
-      <c r="J683" s="12"/>
-      <c r="K683" s="15"/>
+      <c r="J683" s="11"/>
+      <c r="K683" s="20"/>
+    </row>
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A684" s="40"/>
+      <c r="B684" s="20"/>
+      <c r="C684" s="13"/>
+      <c r="D684" s="39"/>
+      <c r="E684" s="9"/>
+      <c r="F684" s="20"/>
+      <c r="G684" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H684" s="39"/>
+      <c r="I684" s="9"/>
+      <c r="J684" s="11"/>
+      <c r="K684" s="20"/>
+    </row>
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A685" s="41"/>
+      <c r="B685" s="15"/>
+      <c r="C685" s="42"/>
+      <c r="D685" s="43"/>
+      <c r="E685" s="9"/>
+      <c r="F685" s="15"/>
+      <c r="G685" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H685" s="43"/>
+      <c r="I685" s="9"/>
+      <c r="J685" s="12"/>
+      <c r="K685" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17960,7 +18016,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>115.4518999999998</v>
+        <v>121.9518999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
